--- a/Data_Raw/general/general_value.xlsx
+++ b/Data_Raw/general/general_value.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boblin\Documents\GitHub\Taiwan_Land\Data_Raw\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobLin\GitHub\Taiwan_Land\Data_Raw\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A1684-2A19-4C2B-BC0C-ED70DDD04388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6879238E-2675-45BD-84E3-896C7BEDB8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="16875" windowHeight="10972" activeTab="6" xr2:uid="{FD2B3A9F-9889-432E-8818-DEE00E4424AA}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{FD2B3A9F-9889-432E-8818-DEE00E4424AA}"/>
   </bookViews>
   <sheets>
     <sheet name="1950" sheetId="1" r:id="rId1"/>
@@ -499,19 +499,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="13.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -534,7 +534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>28862155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>18458687</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,7 +603,7 @@
         <v>17973858</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,7 +626,7 @@
         <v>12115643</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,7 +649,7 @@
         <v>17953046</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,7 +672,7 @@
         <v>23531925</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -695,7 +695,7 @@
         <v>25412165</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -718,7 +718,7 @@
         <v>16921451</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -741,7 +741,7 @@
         <v>20282324</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +764,7 @@
         <v>22165510</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -787,7 +787,7 @@
         <v>23948733</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
         <v>20686080</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,7 +833,7 @@
         <v>25734476</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -856,7 +856,7 @@
         <v>7625753</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -879,7 +879,7 @@
         <v>15098157</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1380607</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -925,7 +925,7 @@
         <v>62354645</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,7 +948,7 @@
         <v>16440577</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -971,7 +971,7 @@
         <v>13314889</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -994,7 +994,7 @@
         <v>2928007</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>14732900</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1051,19 +1051,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>54264693</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>25887773</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>30486339</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>29978038</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>30895147</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>33479908</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>41945568</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>24141201</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>30783233</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>36106271</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>39077959</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>33391520</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>33998979</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>10080937</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>17149246</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>2285379</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>107483718</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>25688782</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>16490723</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>19826455</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>24761945</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,21 +1601,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852DAFD1-B22B-42D8-A0F4-3456B5C4AE5B}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.46484375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="13.47265625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>73306947</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>38541720</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>43071714</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>29585158</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>38912848</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>44855122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>44887542</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1824,7 @@
         <v>27155655</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>36575869</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>44923265</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>56048414</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>44454208</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>36899948</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>13102543</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>21340087</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>3731585</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>114342988</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2045,11 +2047,14 @@
       <c r="E19" s="2">
         <v>1834105</v>
       </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
       <c r="G19" s="2">
         <v>31818607</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>22399374</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2095,7 +2100,7 @@
         <v>28031061</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>37518057</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2152,19 +2157,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="15.20703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>106630438</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2238,7 @@
         <v>51197269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>50174091</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2284,7 @@
         <v>58313550</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>57860443</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>64358525</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>72424631</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>38866316</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>70092108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>69930563</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +2445,7 @@
         <v>70109616</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>63391148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>58503475</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>18565321</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2532,7 +2537,7 @@
         <v>23050486</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2555,7 +2560,7 @@
         <v>5500286</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>155170698</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2601,7 +2606,7 @@
         <v>45725826</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>28058833</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>40144591</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>47959258</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2704,19 +2709,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="13.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>133947039</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>47703602</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>75596839</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>62974785</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>61575728</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>76193034</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>89632588</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>45760760</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>58027023</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>83290583</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>69605626</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>78417104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3038,7 +3043,7 @@
         <v>91987810</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>19508923</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>29535051</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>6337897</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>154419217</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>42226991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3181,7 @@
         <v>42014924</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>8503841</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3222,7 +3227,7 @@
         <v>62634926</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3256,20 +3261,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.9296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="15.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.9453125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>214125034</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>61566782</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>103571610</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>75468439</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3407,7 +3412,7 @@
         <v>77014155</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>93715234</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3453,7 +3458,7 @@
         <v>133502006</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>52230434</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>90660563</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3527,7 @@
         <v>99594084</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>91582200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>85544399</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3591,7 +3596,7 @@
         <v>107624836</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>25095236</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3637,7 +3642,7 @@
         <v>35476517</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>9891473</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>180082979</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>37413459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3729,7 +3734,7 @@
         <v>48914193</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>59118022</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>74576149</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3808,21 +3813,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863DB7D1-68F4-499D-8E0C-6C9AD171CB93}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="15.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>234046500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>82453710</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3921,7 @@
         <v>118334828</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>71014259</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3960,7 +3967,7 @@
         <v>91512633</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>102405623</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4006,7 +4013,7 @@
         <v>138519590</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>64355939</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>92219021</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4075,7 +4082,7 @@
         <v>117929229</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>96429893</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4121,7 +4128,7 @@
         <v>92394847</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>121143754</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4167,7 +4174,7 @@
         <v>21431225</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>25727450</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -4213,7 +4220,7 @@
         <v>9030388</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>184892486</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -4259,7 +4266,7 @@
         <v>67063918</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +4289,7 @@
         <v>56055731</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>75164991</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>89753891</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
